--- a/dados/arquivo final/receitas.xlsx
+++ b/dados/arquivo final/receitas.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Total por Ano" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Total por Categoria" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Total por Origem" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Realizado x Previsto" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -808,4 +809,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ANO EXERCÍCIO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR REALIZADO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR PREVISTO ATUALIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1893613719099.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2174650946322.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2238551079327.88</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2392129226119.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2665685375159.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2878827555613.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2839711583462.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2952696248075.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2558047412866.96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3414379614681.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2942387872873.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3505648331810.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2991564738258.26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3261378698948.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3631448629524.17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3577146718910.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4080231787849.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4180716471387.52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4208048258805.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4729675423493.79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4305719008249.26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5201396090427.55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3447815490717.87</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5414292248219.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>